--- a/loaded_influencer_data/taylorgaww/taylorgaww_video.xlsx
+++ b/loaded_influencer_data/taylorgaww/taylorgaww_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7395429857192119594</t>
         </is>
@@ -515,16 +515,16 @@
         <v>3000000</v>
       </c>
       <c r="C2" t="n">
-        <v>272300</v>
+        <v>273700</v>
       </c>
       <c r="D2" t="n">
-        <v>1285</v>
+        <v>1308</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9.1195</v>
+        <v>9.166933333333334</v>
       </c>
       <c r="I2" t="n">
-        <v>9.076666666666666</v>
+        <v>9.123333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04283333333333333</v>
+        <v>0.0436</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4533333333333334</v>
+        <v>0.4566666666666667</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,13 +558,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7453172257611926827</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154600</v>
+        <v>155200</v>
       </c>
       <c r="C3" t="n">
         <v>38300</v>
@@ -576,27 +576,27 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>@Alani Nutrition #alani #starbucks #pink #starbucksacairefresher #rhode</t>
+          <t>no fighting happened, he just throws his keys on the ground and then i rip my room apart trying to find them!! #fyp</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>24.82988357050453</v>
+        <v>24.73389175257732</v>
       </c>
       <c r="I3" t="n">
-        <v>24.77360931435964</v>
+        <v>24.67783505154639</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05627425614489004</v>
+        <v>0.05605670103092784</v>
       </c>
       <c r="L3" t="n">
-        <v>1.552393272962484</v>
+        <v>1.548324742268041</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,19 +610,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@taylorgaww/video/7486535818274966830</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@taylorgaww/photo/7487985817957190955</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1070</v>
+        <v>1544</v>
       </c>
       <c r="C4" t="n">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -632,47 +632,47 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GRWM featuring Amazon Prime for young adults! Sign up in my bio to get your 6 month trial for $0 + #primepartner @Amazon</t>
+          <t>#relationship #bf #day1 #fyp</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.4018691588785</v>
+        <v>12.17616580310881</v>
       </c>
       <c r="I4" t="n">
-        <v>11.1214953271028</v>
+        <v>11.85233160621762</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2803738317757009</v>
+        <v>0.3238341968911917</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09345794392523366</v>
+        <v>0.06476683937823835</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@taylorgaww/video/7486209401569807659</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@taylorgaww/video/7486535818274966830</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>726</v>
+        <v>1341</v>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -682,97 +682,97 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>GRWM featuring Amazon Prime for young adults! Sign up in my bio to get your 6 month trial for $0 + #primepartner @Amazon</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>12.00596569724087</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.40939597315436</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5965697240865026</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.07457121551081282</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@taylorgaww/video/7486209401569807659</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>915</v>
+      </c>
+      <c r="C6" t="n">
+        <v>96</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>my fav nights 🌸🫶 @Amazon #fyp #amazon #amazonprime #primevideo #primepartner</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>11.29476584022039</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.88154269972452</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4132231404958678</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1377410468319559</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>11.03825136612022</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.49180327868852</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.546448087431694</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1092896174863388</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7485791107016641838</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>971</v>
-      </c>
-      <c r="C6" t="n">
-        <v>81</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>@Amazon #amazonpartner #amazonprime</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8.341915550978372</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8.341915550978372</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2059732234809475</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@taylorgaww/video/7485424603108527402</t>
-        </is>
-      </c>
       <c r="B7" t="n">
-        <v>1174</v>
+        <v>1093</v>
       </c>
       <c r="C7" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -782,444 +782,444 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>@Amazon #amazonpartner #amazonprime</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8.142726440988106</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.142726440988106</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1829826166514181</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@taylorgaww/video/7485424603108527402</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1285</v>
+      </c>
+      <c r="C8" t="n">
+        <v>103</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>everything from Amazon Prime! You can get everything with Prime's fast + free shipping @Amazon #primepartner</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>8.943781942078365</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.432708688245315</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.5110732538330494</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1703577512776831</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>8.482490272373541</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.01556420233463</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4669260700389105</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1556420233463035</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7484406411464576302</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1666</v>
-      </c>
-      <c r="C8" t="n">
-        <v>271</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="B9" t="n">
+        <v>1765</v>
+      </c>
+      <c r="C9" t="n">
+        <v>277</v>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>#nationalflowersday #flowers #boyfriend #relationship #flowersday</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>16.44657863145258</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16.26650660264105</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1800720288115246</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1800720288115246</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>15.86402266288952</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.69405099150142</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.169971671388102</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.169971671388102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7484315616262769963</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1520</v>
-      </c>
-      <c r="C9" t="n">
-        <v>143</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="B10" t="n">
+        <v>1627</v>
+      </c>
+      <c r="C10" t="n">
+        <v>147</v>
+      </c>
+      <c r="D10" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>#girlythings #girlytok #pinkbedroom #pinkaesthetic #aesthetic #pinkaesthethic #cleangirlaesthetic</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>9.736842105263158</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9.407894736842106</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3289473684210526</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>9.342347879532882</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.035033804548249</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3073140749846343</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7484085859260566826</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>1087</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>92</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>i absolutely love the curlpro💋💋@TYMO BEAUTY US #tymobeauty #tymo #tymocurlpro #fyp</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>8.739650413983441</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>8.463661453541858</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.2759889604415823</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.09199632014719411</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7484014572429593902</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>1156</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>114</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>@rihoas_official #inrihoas #rihoasfashion #rihoasdress #springbreakdress #springbreak2025</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>10.2076124567474</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>9.86159169550173</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.3460207612456748</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7483948544294931755</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>1737</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>146</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>19</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>not sponsored!! #girlhack #glowuptips #girltips #friedhair #damagedhair #hacks #hairhack #blondehair</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>8.578008059873344</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>8.405296488198042</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.1727115716753022</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>1.093839953943581</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7483609212782873902</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>1173</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>144</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>@rihoas_official #rihoas #imjustagirl #dress #goldjewelry #purse #goldbracelet #goldgirl</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>12.3614663256607</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>12.27621483375959</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.08525149190110827</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>0.1705029838022165</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7483535739439942955</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>1337</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>179</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>#starbucks #starbucksdrinks #starbucksaddict #starbucksorder #girly #pinkaesthetic</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>13.38818249813014</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>13.38818249813014</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0.3739715781600598</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7483261147530153262</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>1237</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>152</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>#pr #prhaul #weeklypr #microinfluencer #smallcreator #PR #collabs #girly</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>12.69199676637025</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12.28779304769604</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4042037186742118</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.4850444624090542</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@taylorgaww/video/7483195534514375982</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7723</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1204</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -1228,745 +1228,745 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>#pr #prhaul #weeklypr #microinfluencer #smallcreator #PR #collabs #girly</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>12.69199676637025</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.28779304769604</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4042037186742118</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4850444624090542</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@taylorgaww/video/7483195534514375982</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7723</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1204</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>52</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>#brandymelville #brandymelvillehaul #brandy #mallofamerica #shopping #girly</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>15.65453839181665</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>15.58979671112262</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.06474168069403081</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>0.6733134792179205</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7482888658547150126</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>1430</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>150</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>dress from @rihoas_official use 20TaylorG : 20% OFF #rihoas #inrihoas #rihoas_offical #rihoas #rihoasfashion</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>10.76923076923077</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>10.48951048951049</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.2797202797202797</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>0.06993006993006994</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7482802193846799662</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>1795</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>154</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>5</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>7</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>@Urban Planet @BIRKENSTOCK USA #mallofamerica #shoppinghaul #shoppingspree #birthdayshopping</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>8.857938718662952</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>8.579387186629527</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.2785515320334262</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>0.3899721448467967</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7482553669985045806</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>1374</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>228</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>9</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>16</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>#pink #pinkaesthetic #girly #girly #edikted @Edikted @francesca’s</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>17.24890829694323</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>16.5938864628821</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.6550218340611353</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>1.16448326055313</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7482515316325551402</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>55300</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>7944</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>45</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>593</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>@Edikted #edikted #mallofamerica #mallofamericaedikted #ediktedtubetop #shoppinghaul #shopping</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>14.44665461121157</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>14.36528028933092</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.081374321880651</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>1.072332730560579</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7482109292108090667</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>1583</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>247</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>6</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>16</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>#shopping #shoppinghaul #pinkgirl #pinkaesthetic #spring #summer @francesca’s</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>15.98231206569804</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>15.60328490208465</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.3790271636133923</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>1.010739102969046</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7479862851436580142</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>1827</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>185</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>8</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>8</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>@ORNARTO US #phonecase #cases #pink #pinkphonecase #pr #collaboration</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>10.56376573617953</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>10.12588943623426</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.4378762999452655</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>0.4378762999452655</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7478355868518681902</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>2490</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>340</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>12</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>6</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>#wisconsin #centralwisconsin #wisconsinweather #snowstorm #spring #weather #wisconsinlife</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>14.13654618473895</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>13.65461847389558</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.4819277108433735</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.2409638554216868</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7478121098723265835</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>2258</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>211</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>9</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>@mcobeauty us @MCoBeauty #pr #PR #mcobeautypartner #mcobeautypr #girly #pink #pinkaesthethic #prunbox</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>9.743135518157661</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>9.344552701505757</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.3985828166519044</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>0.08857395925597875</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7473936553069366574</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>3850</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>648</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>17</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>52</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>#pinkaesthethic #pink #girly #pinkphoto #preppy #bedroomdesign #bedroom #cutie</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>17.27272727272727</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>16.83116883116883</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.4415584415584416</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>1.350649350649351</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7473565199094615339</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>187000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>11700</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>93</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>1255</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>#pinkaesthethic #pink #girly #pinkphoto #preppy #bedroomdesign #bedroom #cutie</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>6.306417112299465</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>6.256684491978609</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.04973262032085562</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>0.6711229946524064</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7473194894777994538</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>21700</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>583</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>8</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>27</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>#dunkin #dunkincoffee #coffeetiktok #makingcoffee #dunkindonuts</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>2.723502304147465</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>2.686635944700461</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.03686635944700461</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>0.1244239631336406</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7472888429638864174</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>9927</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>1480</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>16</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>89</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>#starbucksdrinks #starbucks #starbucksrefreshers #pinkaesthetic #refresher</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>15.0700110808905</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>14.90883449179007</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.1611765891004331</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>0.8965447768711594</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7472472481274744110</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>8312</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>511</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>17</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>14</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>#grwm #grwmaesthetic @amika #girlytok #girly #grwmforschool</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>6.352261790182869</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>6.147738209817131</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.2045235803657363</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>0.1684311838306063</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7472046942932094254</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>6840</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1022</v>
-      </c>
-      <c r="D30" t="n">
-        <v>21</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>46</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>#roomreset #roomclean #bedroomdesign #bedroomdecor #cleaningmotivation #bedroom #pinkbedroom</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>15.24853801169591</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14.94152046783626</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.3070175438596491</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.672514619883041</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@taylorgaww/video/7471720718783237418</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>16100</v>
       </c>
       <c r="C31" t="n">
         <v>1022</v>
@@ -1986,974 +1986,1024 @@
         </is>
       </c>
       <c r="H31" t="n">
+        <v>15.24853801169591</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.94152046783626</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3070175438596491</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.672514619883041</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@taylorgaww/video/7471720718783237418</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16100</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>46</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>#roomreset #roomclean #bedroomdesign #bedroomdecor #cleaningmotivation #bedroom #pinkbedroom</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>6.478260869565218</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>6.347826086956522</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.1304347826086957</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7468742500384017706</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>9467</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>1840</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>25</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>119</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>#plateoscloset #whitefox #lululmeon #dandyworldwide #essentials #ambercrombie #plateos #thrift</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>19.70001056300834</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>19.43593535438893</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.2640752086194148</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>1.256997993028415</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7468073390595640619</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>4191</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>404</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>11</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>12</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>#dunkindonuts #dunkin #butterpecan #dunkindrink #coffee</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>9.902171319494155</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>9.639704127893104</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.2624671916010499</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L34" t="n">
         <v>0.2863278453829635</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7468060064608226606</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
         <v>3055</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C35" t="n">
         <v>637</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D35" t="n">
         <v>46</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>14</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>my biggest supporter🥰 #20k #boyfriend #tiktokgoal #bf #relationship #couplegoals #loveyou</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>22.35679214402619</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>20.85106382978723</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>1.505728314238953</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>0.4582651391162029</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7467999241366064430</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B36" t="n">
         <v>6185</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>367</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>10</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>18</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>@berlook @Beading By Sophie 🩷 @Anthology jewelry co @Luxury-Finds @Roar Organic</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>6.095392077607114</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>5.933710590137429</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.1616814874696847</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L36" t="n">
         <v>0.2910266774454325</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7466635695667514670</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>2337</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>753</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>11</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>36</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>wallet and bag from @Luxury-Finds #Luxury -finds #goldgirl #goldjewelry #gold</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>32.69148480958494</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>32.22079589216945</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.47068891741549</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>1.540436456996149</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7465398153479540011</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>2750</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C38" t="n">
         <v>401</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>17</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>16</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>#pink #pinkaesthetic #colorpink #girly #bedroom #vanity</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>15.2</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>14.58181818181818</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.6181818181818182</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>0.5818181818181818</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7465149730436222250</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
         <v>2556</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>399</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>18</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>7</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>#hairdonne #hairtransformation</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>16.31455399061033</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>15.61032863849765</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.7042253521126761</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L39" t="n">
         <v>0.2738654147104851</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7465088115795840299</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>2604</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>348</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>16</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>3</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>#hairtransformation #hairtranisition #blondehair</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>13.97849462365591</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>13.36405529953917</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.6144393241167435</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L40" t="n">
         <v>0.1152073732718894</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7464259895584460074</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>2699</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>320</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>10</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>@Beading By Sophie 🩷 #beadingbysophie #jewelry #bracelets #pinkjewelry #cute #girly #pinkaesthetic</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>12.00444609114487</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>11.85624305298259</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.1482030381622823</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>0.3705075954057058</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7463182045641002282</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B42" t="n">
         <v>3809</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>246</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>7</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>4</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>@owalalife #owala #athirstofitskind #AThirstofitsKind</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>6.642163297453401</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>6.458388028353898</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.1837752690995012</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>0.1050144394854293</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7462520935535349038</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>5429</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>550</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>18</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>31</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>#organizer #goldgirl #pinkmakeup #pinkaesthetic #girly</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>10.46233192116412</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>10.13077914901455</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.3315527721495671</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>0.5710075520353656</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7462446226529733931</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>6927</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>338</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>12</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>8</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>@owalalife #owala #owalapr #owalatopsecret</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>5.0526923632164</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>4.879457196477552</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.173235166738848</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L44" t="n">
         <v>0.115490111159232</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7462144605140602155</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>6386</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>1088</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>34</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>96</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>#gelx #gelxnails #nailsathome💅 #nailday #nailsartvideos</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H45" t="n">
         <v>17.56968368305668</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I45" t="n">
         <v>17.03726902599436</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.5324146570623238</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L45" t="n">
         <v>1.503288443470091</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7461281209713249582</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>3889</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>1055</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>20</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>80</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>#makeup #aestedic #pinkaesthetic #girly #pink #pinktok @Gisou @Glow Recipe @Summer Fridays</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>27.64206736950373</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>27.12779634867575</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.5142710208279764</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>2.057084083311906</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/photo/7460595049517042986</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>24200</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C47" t="n">
         <v>279</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D47" t="n">
         <v>15</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>#tiktokban</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>1.214876033057851</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I47" t="n">
         <v>1.152892561983471</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.06198347107438017</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L47" t="n">
         <v>0.01239669421487603</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-19</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7460198346200796462</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B48" t="n">
         <v>3402</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>2050</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>23</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>47</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>#starbucks #reminder #starbucksdrinks #blondelatte #starbucksorder</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H48" t="n">
         <v>60.9347442680776</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I48" t="n">
         <v>60.25867136978248</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.6760728982951205</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L48" t="n">
         <v>1.381540270429159</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7460163288383491370</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>2666</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>384</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>7</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>8</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>#cansmash #alani #bubblr @BUBBL’R #energydrinkaddicts</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>14.66616654163541</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>14.40360090022505</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.2625656414103526</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>0.3000750187546887</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7459931413899463979</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B50" t="n">
         <v>2859</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C50" t="n">
         <v>266</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D50" t="n">
         <v>4</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>3</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>@CAITLIN &amp; CO. BOUTIQUE #caitlincoboutique #caitlinandcoboutique #girly #outfit #pinkaesthetic</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>9.44386149003148</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I50" t="n">
         <v>9.303952430919903</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.1399090591115775</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L50" t="n">
         <v>0.1049317943336831</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@taylorgaww/video/7459884856793779502</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B51" t="n">
         <v>2497</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
         <v>365</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>9</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>8</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>#bedroom #bedroomdesign #bedroomcheck #bedroommakeover #bedroomdecor</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>14.97797356828194</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>14.61754104925911</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.3604325190228274</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L51" t="n">
         <v>0.3203844613536244</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
